--- a/biology/Zoologie/Chrysolina_coerulans/Chrysolina_coerulans.xlsx
+++ b/biology/Zoologie/Chrysolina_coerulans/Chrysolina_coerulans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chrysolina coerulans, la chrysomèle bleuâtre, est une espèce d'insectes coléoptères de la famille des Chrysomelidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Taille 6 à 9 mm de long. Couleur variable souvent bleutée ou noirâtre à reflets métalliques. Corps trapu et tête enfoncée sous le corselet.
 </t>
@@ -542,7 +556,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Europe : de la France, Belgique, Hollande à la Roumanie et à l'Ukraine (absent des îles Britanniques, des régions nordiques et méditerranéennes).
 </t>
@@ -573,7 +589,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Milieux humides près des cours d'eau et sur les collines.
 </t>
@@ -604,7 +622,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Phytophage, aussi bien l'adulte que la larve.
 </t>
@@ -635,7 +655,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La position de ce taxon est sujette à discussion : selon Fauna Europaea Chrysolina coerulans appartient au sous-genre Synerga ; uBio place l'espèce dans le sous-genre Menthastriella, identifié par le premier en tant que synonyme de Synerga.
 Toutefois, d'autres bases de données établissent Synerga en tant que genre à part entière (notamment BioLib et uBio) quand cette espèce reste toujours classée dans le genre Chrysolina. 
@@ -667,7 +689,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Chrysolina coerulans coerulans (L.G. Scriba, 1791)
 Chrysolina coerulans splendorifera Motschulky, 1860
